--- a/Document Library/Bill Of Materials/frame only bom.xlsx
+++ b/Document Library/Bill Of Materials/frame only bom.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7BDAD47E-281C-4B63-98CB-683B944D9635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{7BDAD47E-281C-4B63-98CB-683B944D9635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D98E787-B84F-4D16-8407-2CEE6700878B}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="frame bom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -109,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -943,11 +955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1179,7 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Document Library/Bill Of Materials/frame only bom.xlsx
+++ b/Document Library/Bill Of Materials/frame only bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{7BDAD47E-281C-4B63-98CB-683B944D9635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D98E787-B84F-4D16-8407-2CEE6700878B}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{7BDAD47E-281C-4B63-98CB-683B944D9635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70591095-B589-4477-AFDC-19E2C57A2E0C}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Part name</t>
   </si>
@@ -116,6 +116,21 @@
   </si>
   <si>
     <t>length</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>25-50</t>
+  </si>
+  <si>
+    <t>extra nuts</t>
+  </si>
+  <si>
+    <t>&lt; add these</t>
   </si>
 </sst>
 </file>
@@ -258,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +451,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -599,8 +620,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -956,11 +979,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -969,7 +990,7 @@
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -983,12 +1004,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -996,15 +1017,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1021,12 +1052,15 @@
         <f>D6*B6</f>
         <v>1680</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f>E6+E8+E9</f>
         <v>6600</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1043,12 +1077,15 @@
         <f t="shared" ref="E7:E10" si="0">D7*B7</f>
         <v>420</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f>E7+E10</f>
         <v>789</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1066,7 +1103,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1084,7 +1121,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1102,12 +1139,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1118,7 +1155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1129,7 +1166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1137,44 +1174,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1182,7 +1222,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1195,5 +1235,6 @@
     <sortCondition ref="A4:A10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>